--- a/medicine/Enfance/Béatrice_Nicodème/Béatrice_Nicodème.xlsx
+++ b/medicine/Enfance/Béatrice_Nicodème/Béatrice_Nicodème.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Nicod%C3%A8me</t>
+          <t>Béatrice_Nicodème</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Béatrice Nicodème est une autrice de romans policiers, de romans historiques et d'ouvrages de littérature d'enfance et de jeunesse[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Béatrice Nicodème est une autrice de romans policiers, de romans historiques et d'ouvrages de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Nicod%C3%A8me</t>
+          <t>Béatrice_Nicodème</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études d'allemand et de documentaliste, elle exerce pendant vingt ans le métier de maquettiste dans la presse. 
 Elle commence à écrire à l'âge de 31 ans des romans policiers, tant pour les adultes, dans la lignée des thrillers psychologiques de Boileau-Narcejac, que pour la jeunesse. Elle publie également des romans historiques dans lesquels le mystère est toujours présent. Elle a longtemps collaboré au magazine Je lis des histoires vraies.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Nicod%C3%A8me</t>
+          <t>Béatrice_Nicodème</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers
-L'Inconnu de la terrasse, Éditions de l'Instant, coll. L'Instant noir, 1987
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Inconnu de la terrasse, Éditions de l'Instant, coll. L'Instant noir, 1987
 Terreur blanche, Denoël, coll. Sueurs Froides, 1990
 Meurtres par écrits, Crime Fleuve Noir, 1993
 Défi à Sherlock Holmes, Crime Fleuve Noir, 1993
@@ -559,35 +578,220 @@
 Le Venin du pouvoir, Éditions du Masque, 2005
 Mensonges, Éditions Timée, 2008
 Comme ils respirent, Éditions du 38, mars 2022
-Je ne rentrerai pas tard, Éditions Ajna de Scorto, 2024
-Coll. "Le Figuier sauvage"
-Et ils trouveront le repos, Bookelis (mars 2022), e-book Ed. du 38 (mai 2022)
+Je ne rentrerai pas tard, Éditions Ajna de Scorto, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Béatrice_Nicodème</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Nicod%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Coll. "Le Figuier sauvage"</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Et ils trouveront le repos, Bookelis (mars 2022), e-book Ed. du 38 (mai 2022)
 Indésirables, Bookelis (mars 2022), e-book Ed. du 38 (mai 2022)
 La Tentation du silence, Bookelis (mai 2022)
-Romans historiques
-Série Révolution française
-Une série se déroulant en France, entre la Révolution française et le sacre de Napoléon Bonaparte, parue aux Éditions du Masque, dans la collection « Labyrinthes »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Béatrice_Nicodème</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Nicod%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans historiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Révolution française</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Une série se déroulant en France, entre la Révolution française et le sacre de Napoléon Bonaparte, parue aux Éditions du Masque, dans la collection « Labyrinthes »
 Les Loups de la Terreur, 1998, coll. « Labyrinthes » no 36
 La Mort du Loup blanc, 1999, coll. « Labyrinthes » no 53
 Le Chacal rouge, 2000, coll. « Labyrinthes » no 75
 La Conspiration de l’hermine, 2003, coll. « Labyrinthes » no 84
-L’Envol de l’aigle, 2004, coll. « Labyrinthes »
-Autres romans historiques
-Le Secret de Sir Adrian F., Timée Éditions, 2007 (Angleterre victorienne, 1893)
+L’Envol de l’aigle, 2004, coll. « Labyrinthes »</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Béatrice_Nicodème</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Nicod%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans historiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans historiques</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Secret de Sir Adrian F., Timée Éditions, 2007 (Angleterre victorienne, 1893)
  L'Enigme Leprince, Timée Éditions, 2008
-Les Conjurés de décembre, Amazon Kindle, 2014
-Romans de littérature jeunesse
-Série Wiggins
-Le héros est le jeune Wiggins, gamin des rues et vendeur de journaux aperçu dans les récits d'Arthur Conan Doyle, et qui aide Sherlock Holmes dans ses enquêtes.
+Les Conjurés de décembre, Amazon Kindle, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Béatrice_Nicodème</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Nicod%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans de littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Wiggins</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le héros est le jeune Wiggins, gamin des rues et vendeur de journaux aperçu dans les récits d'Arthur Conan Doyle, et qui aide Sherlock Holmes dans ses enquêtes.
 Wiggins et le Perroquet muet, Syros, 1992
 Wiggins et la Ligne chocolat, Syros, 1995
 Un rival pour Sherlock Holmes, Livre de Poche Jeunesse, 1996
 Wiggins et Sherlock contre Napoléon, Syros, 2007
 Wiggins chez les Johnnies, Syros, 2003
 Wiggins et les Plans de l'ingénieur, Syros, 2006
-Wiggins et la Nuit de l'éclipse, Gulf Stream, coll. « Courants noirs », 2012 / et Hachette, 2014
-Série Les Énigmes de Futékati
-De courtes énigmes (quatre par livre) à résoudre par les tout jeunes lecteurs. La série, d'abord parue chez Hachette Jeunesse dans la collection "Bibliothèque rose", est en cours de re-publication par Gulf Stream.
+Wiggins et la Nuit de l'éclipse, Gulf Stream, coll. « Courants noirs », 2012 / et Hachette, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Béatrice_Nicodème</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Nicod%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans de littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Les Énigmes de Futékati</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>De courtes énigmes (quatre par livre) à résoudre par les tout jeunes lecteurs. La série, d'abord parue chez Hachette Jeunesse dans la collection "Bibliothèque rose", est en cours de re-publication par Gulf Stream.
 Série La Bibliothèque rose, quinze titres publiés entre 1998 et 2006. Tous les titres sont illustrés par François San Millan.
 Le concours de natation. Bibliothèque rose ; 360 ; 1998
 Vol au musée Grévin. Bibliothèque rose ; 361 ; 1998
@@ -612,18 +816,132 @@
 tome 5 : Le Nuage au citron (mars 2018).
 tome 6 : Dans les pommes ! (mars 2018).
 tome 7 : Le fantôme à la fenêtre (2019)
-tome 8 : Cumulus en a plein le dos (2019)
-Série Europa, en collab. av. Thierry Lefèvre (Nathan)
-tome 1 : Dossier Morden ;
+tome 8 : Cumulus en a plein le dos (2019)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Béatrice_Nicodème</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Nicod%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans de littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Europa, en collab. av. Thierry Lefèvre (Nathan)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>tome 1 : Dossier Morden ;
 tome 2 : Deux morts à Venise ;
 tome 3 : Noirs complots sur Bruxelles ;
-tome 4 : Sale nuit à Londres.
-Série Les Aventures de Colin, tailleur de pierre
-tome 1 : Le Secret de la cathédrale, Livre de Poche Jeunesse, 2006
+tome 4 : Sale nuit à Londres.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Béatrice_Nicodème</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Nicod%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans de littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Les Aventures de Colin, tailleur de pierre</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>tome 1 : Le Secret de la cathédrale, Livre de Poche Jeunesse, 2006
 tome 2 : La Malédiction de la Sainte-Chapelle, Livre de Poche Jeunesse, 2009
-tome 3 :  Le Trésor de Salisbury, Livre de Poche Jeunesse, 2010
-Autres romans pour la jeunesse
-Chapeau, Agathe !, Hachette jeunesse, 1997 ; réédité sous le titre Le Mystère des doubles fonds, Livre de Poche Jeunesse, 2004 ; réédition sous le titre La Rue des mystères, Livre de Poche Jeunesse, 2009
+tome 3 :  Le Trésor de Salisbury, Livre de Poche Jeunesse, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Béatrice_Nicodème</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Nicod%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans de littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Autres romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Chapeau, Agathe !, Hachette jeunesse, 1997 ; réédité sous le titre Le Mystère des doubles fonds, Livre de Poche Jeunesse, 2004 ; réédition sous le titre La Rue des mystères, Livre de Poche Jeunesse, 2009
 Un détective de mauvais poil, Livre de Poche Jeunesse, 1998
 Panique au poney-club, Pocket, coll. « Kid-pocket », 2002
 Le Garçon d’en face, J’ai Lu, coll. « Journal Secret », 2002
@@ -642,39 +960,75 @@
 Arsène Lupin et le trésor du Diable. Hachette, 2017
 Il n'est si longue nuit, Gulf Stream, 2018
 L'inquiétant Mister W., Gulf Stream, 2019
-D'après la Flûte enchantée, Gulf Stream, août 2022
-Autres publications
-Dictionnaire du roman policier, Livre de Poche Jeunesse no 1509, 1998 (en collaboration avec Éric Biville)
+D'après la Flûte enchantée, Gulf Stream, août 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Béatrice_Nicodème</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Nicod%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Dictionnaire du roman policier, Livre de Poche Jeunesse no 1509, 1998 (en collaboration avec Éric Biville)
 Le Roman policier, bonne ou mauvaise lecture ?, Éditions du Sorbier, 2004
 Mais que fait la police?, Gulf Stream, 2012</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B%C3%A9atrice_Nicod%C3%A8me</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Nicod%C3%A8me</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Béatrice_Nicodème</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Nicod%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 * 1996 : Prix Agatha Christie, pour la nouvelle Tragique illusion (Ville de Dinard et magazine Bonne Soirée).
